--- a/Personal Document/ChangJiaQi/个人日报 常家奇.xlsx
+++ b/Personal Document/ChangJiaQi/个人日报 常家奇.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="57">
   <si>
     <t xml:space="preserve">密级：秘密</t>
   </si>
@@ -48,6 +48,7 @@
         <sz val="14"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">文件编号：</t>
     </r>
@@ -70,6 +71,7 @@
         <sz val="14"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">版本：</t>
     </r>
@@ -103,6 +105,7 @@
         <sz val="15"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">版权所有，翻版必究</t>
     </r>
@@ -150,6 +153,7 @@
         <sz val="14"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">文档编号：</t>
     </r>
@@ -167,6 +171,7 @@
         <sz val="14"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">项目编号</t>
     </r>
@@ -184,6 +189,7 @@
         <sz val="14"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">年份</t>
     </r>
@@ -237,6 +243,7 @@
         <sz val="11"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">项目名称</t>
     </r>
@@ -274,6 +281,7 @@
         <sz val="12"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">关键任务跟踪</t>
     </r>
@@ -296,6 +304,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模拟</t>
     </r>
@@ -323,6 +332,7 @@
         <sz val="12"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">日工作记录跟踪</t>
     </r>
@@ -340,6 +350,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">工作时间</t>
     </r>
@@ -359,6 +370,7 @@
         <sz val="10"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">小时</t>
     </r>
@@ -400,6 +412,7 @@
         <sz val="9"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">模拟</t>
     </r>
@@ -424,6 +437,7 @@
         <sz val="12"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">主要问题</t>
     </r>
@@ -444,6 +458,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">注：文件名称格式为 个人日报</t>
     </r>
@@ -463,6 +478,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">姓名</t>
     </r>
@@ -482,6 +498,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">，</t>
     </r>
@@ -501,6 +518,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">名 为当天日期</t>
     </r>
@@ -512,6 +530,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">例如：个人日报</t>
     </r>
@@ -531,6 +550,7 @@
         <color rgb="FFFF0000"/>
         <rFont val="Droid Sans Fallback"/>
         <family val="2"/>
+        <charset val="1"/>
       </rPr>
       <t xml:space="preserve">李平</t>
     </r>
@@ -545,6 +565,49 @@
       <t xml:space="preserve">.xls</t>
     </r>
   </si>
+  <si>
+    <t xml:space="preserve">小学算数系统</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">语言基础</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">语言基础</t>
+    </r>
+  </si>
 </sst>
 </file>
 
@@ -554,7 +617,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
   </numFmts>
-  <fonts count="54">
+  <fonts count="55">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -606,11 +669,13 @@
       <sz val="18"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="14"/>
@@ -628,6 +693,7 @@
       <sz val="42"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -646,6 +712,7 @@
       <sz val="15"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -659,6 +726,7 @@
       <sz val="15"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10.5"/>
@@ -683,6 +751,7 @@
       <sz val="22"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="22"/>
@@ -695,11 +764,13 @@
       <sz val="12"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -724,6 +795,7 @@
       <sz val="36"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="36"/>
@@ -735,6 +807,7 @@
       <sz val="18"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -793,11 +866,13 @@
       <sz val="11"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="11"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -830,12 +905,14 @@
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
       <sz val="10"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -855,6 +932,7 @@
       <sz val="9"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <b val="true"/>
@@ -868,12 +946,14 @@
       <sz val="9"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
       <color rgb="FFFF0000"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="12"/>
@@ -881,6 +961,12 @@
       <name val="宋体"/>
       <family val="0"/>
       <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -1258,10 +1344,6 @@
       <alignment horizontal="center" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
     <xf numFmtId="164" fontId="25" fillId="0" borderId="1" xfId="22" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="justify" vertical="center" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1602,6 +1684,10 @@
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="54" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1633,9 +1719,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>578880</xdr:colOff>
+      <xdr:colOff>578160</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>231480</xdr:rowOff>
+      <xdr:rowOff>230760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1644,8 +1730,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5280840" y="233640"/>
-          <a:ext cx="340920" cy="279720"/>
+          <a:off x="5280480" y="233640"/>
+          <a:ext cx="340200" cy="279000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1716,9 +1802,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>30240</xdr:colOff>
+      <xdr:colOff>29520</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>236160</xdr:rowOff>
+      <xdr:rowOff>235440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1727,8 +1813,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5647680" y="296280"/>
-          <a:ext cx="300600" cy="221760"/>
+          <a:off x="5647320" y="296280"/>
+          <a:ext cx="299520" cy="221040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2772,9 +2858,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>336960</xdr:colOff>
+      <xdr:colOff>336240</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>236520</xdr:rowOff>
+      <xdr:rowOff>235800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2783,8 +2869,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5971320" y="301680"/>
-          <a:ext cx="283680" cy="216720"/>
+          <a:off x="5970600" y="301680"/>
+          <a:ext cx="282960" cy="216000"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3203,9 +3289,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>627840</xdr:colOff>
+      <xdr:colOff>627120</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>236160</xdr:rowOff>
+      <xdr:rowOff>235440</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3214,8 +3300,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6280560" y="296280"/>
-          <a:ext cx="265320" cy="221760"/>
+          <a:off x="6279840" y="296280"/>
+          <a:ext cx="264600" cy="221040"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4384,9 +4470,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>81360</xdr:colOff>
+      <xdr:colOff>80640</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>237600</xdr:rowOff>
+      <xdr:rowOff>236880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4395,8 +4481,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6563880" y="296280"/>
-          <a:ext cx="310680" cy="223200"/>
+          <a:off x="6563160" y="296280"/>
+          <a:ext cx="309960" cy="222480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5593,9 +5679,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>504720</xdr:colOff>
+      <xdr:colOff>504000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>235440</xdr:rowOff>
+      <xdr:rowOff>234720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5604,8 +5690,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6887880" y="219240"/>
-          <a:ext cx="410040" cy="298080"/>
+          <a:off x="6887160" y="219240"/>
+          <a:ext cx="409320" cy="297360"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6266,9 +6352,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>541800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523800</xdr:rowOff>
+      <xdr:rowOff>523080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6281,8 +6367,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10316160" y="76320"/>
-          <a:ext cx="2182680" cy="447480"/>
+          <a:off x="10317960" y="76320"/>
+          <a:ext cx="2181240" cy="446760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6308,9 +6394,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>541800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523800</xdr:rowOff>
+      <xdr:rowOff>523080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6323,8 +6409,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10316160" y="76320"/>
-          <a:ext cx="2182680" cy="447480"/>
+          <a:off x="10317960" y="76320"/>
+          <a:ext cx="2181240" cy="446760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6350,9 +6436,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>541800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523800</xdr:rowOff>
+      <xdr:rowOff>523080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6365,8 +6451,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10316160" y="76320"/>
-          <a:ext cx="2182680" cy="447480"/>
+          <a:off x="10317960" y="76320"/>
+          <a:ext cx="2181240" cy="446760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6392,9 +6478,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>360360</xdr:colOff>
+      <xdr:colOff>359640</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>278640</xdr:rowOff>
+      <xdr:rowOff>277920</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6403,8 +6489,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="5944680" y="281520"/>
-          <a:ext cx="331920" cy="286560"/>
+          <a:off x="5940000" y="281520"/>
+          <a:ext cx="331200" cy="285840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6475,9 +6561,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>678240</xdr:colOff>
+      <xdr:colOff>677520</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>284040</xdr:rowOff>
+      <xdr:rowOff>283320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6486,8 +6572,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6301800" y="345960"/>
-          <a:ext cx="292680" cy="227520"/>
+          <a:off x="6297120" y="345960"/>
+          <a:ext cx="291960" cy="226800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7531,9 +7617,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>977040</xdr:colOff>
+      <xdr:colOff>976320</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>284040</xdr:rowOff>
+      <xdr:rowOff>283320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7542,8 +7628,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6616800" y="351360"/>
-          <a:ext cx="276480" cy="222120"/>
+          <a:off x="6612120" y="351360"/>
+          <a:ext cx="275760" cy="221400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7962,9 +8048,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1260360</xdr:colOff>
+      <xdr:colOff>1259640</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>284040</xdr:rowOff>
+      <xdr:rowOff>283320</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7973,8 +8059,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6918120" y="345960"/>
-          <a:ext cx="258480" cy="227520"/>
+          <a:off x="6913440" y="345960"/>
+          <a:ext cx="257760" cy="226800"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9143,9 +9229,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>73440</xdr:colOff>
+      <xdr:colOff>72720</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>285480</xdr:rowOff>
+      <xdr:rowOff>284760</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9154,8 +9240,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7193880" y="345960"/>
-          <a:ext cx="302400" cy="228960"/>
+          <a:off x="7189200" y="345960"/>
+          <a:ext cx="302040" cy="228240"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10352,9 +10438,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>485640</xdr:colOff>
+      <xdr:colOff>484920</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>282600</xdr:rowOff>
+      <xdr:rowOff>281880</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10363,8 +10449,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="7509240" y="266760"/>
-          <a:ext cx="399240" cy="305280"/>
+          <a:off x="7504920" y="266760"/>
+          <a:ext cx="398520" cy="304560"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11025,9 +11111,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>541800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523800</xdr:rowOff>
+      <xdr:rowOff>523080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11040,8 +11126,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10316160" y="76320"/>
-          <a:ext cx="2182680" cy="447480"/>
+          <a:off x="10317960" y="76320"/>
+          <a:ext cx="2181240" cy="446760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11067,9 +11153,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>541800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523800</xdr:rowOff>
+      <xdr:rowOff>523080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11082,8 +11168,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10316160" y="76320"/>
-          <a:ext cx="2182680" cy="447480"/>
+          <a:off x="10317960" y="76320"/>
+          <a:ext cx="2181240" cy="446760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11109,9 +11195,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>541800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523800</xdr:rowOff>
+      <xdr:rowOff>523080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11124,8 +11210,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10316160" y="76320"/>
-          <a:ext cx="2182680" cy="447480"/>
+          <a:off x="10317960" y="76320"/>
+          <a:ext cx="2181240" cy="446760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11151,9 +11237,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>541800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523800</xdr:rowOff>
+      <xdr:rowOff>523080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11166,8 +11252,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10316160" y="76320"/>
-          <a:ext cx="2182680" cy="447480"/>
+          <a:off x="10317960" y="76320"/>
+          <a:ext cx="2181240" cy="446760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11193,9 +11279,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>541800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523800</xdr:rowOff>
+      <xdr:rowOff>523080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11208,8 +11294,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10316160" y="76320"/>
-          <a:ext cx="2182680" cy="447480"/>
+          <a:off x="10317960" y="76320"/>
+          <a:ext cx="2181240" cy="446760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11235,9 +11321,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>541800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523800</xdr:rowOff>
+      <xdr:rowOff>523080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11250,8 +11336,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10316160" y="76320"/>
-          <a:ext cx="2182680" cy="447480"/>
+          <a:off x="10317960" y="76320"/>
+          <a:ext cx="2181240" cy="446760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11277,9 +11363,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>542520</xdr:colOff>
+      <xdr:colOff>541800</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523800</xdr:rowOff>
+      <xdr:rowOff>523080</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11292,8 +11378,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10316160" y="76320"/>
-          <a:ext cx="2182680" cy="447480"/>
+          <a:off x="10317960" y="76320"/>
+          <a:ext cx="2181240" cy="446760"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11731,339 +11817,339 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="1.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="67" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="67" width="6.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="67" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="67" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="67" width="25.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="67" width="7.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="67" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="67" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="67" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="66" width="1.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="66" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="66" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="66" width="6.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="66" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="66" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="66" width="25.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="66" width="7.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="66" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="66" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="66" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-    </row>
-    <row r="3" s="71" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="72" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" s="70" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="75"/>
-    </row>
-    <row r="4" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="79" t="s">
+      <c r="I3" s="76"/>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-    </row>
-    <row r="5" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-    </row>
-    <row r="6" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="85" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+    </row>
+    <row r="6" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-    </row>
-    <row r="7" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="87" t="s">
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-    </row>
-    <row r="8" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="89" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+    </row>
+    <row r="8" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-    </row>
-    <row r="9" s="92" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="93" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+    </row>
+    <row r="9" s="91" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="96" t="s">
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="98" t="n">
+    <row r="10" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-    </row>
-    <row r="11" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="98" t="n">
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101"/>
+    </row>
+    <row r="11" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-    </row>
-    <row r="12" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="103" t="n">
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+    </row>
+    <row r="12" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
-    </row>
-    <row r="13" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="98" t="n">
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="97" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-    </row>
-    <row r="14" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="98" t="n">
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
+    </row>
+    <row r="14" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="97" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="102"/>
-    </row>
-    <row r="15" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="103" t="n">
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="101"/>
+    </row>
+    <row r="15" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="102" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
-    </row>
-    <row r="16" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="98" t="n">
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="101"/>
+    </row>
+    <row r="16" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="97" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="102"/>
-    </row>
-    <row r="17" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="104" t="s">
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
+    </row>
+    <row r="17" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105" t="n">
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104" t="n">
         <f aca="false">SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
-    </row>
-    <row r="18" s="78" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="89" t="s">
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+    </row>
+    <row r="18" s="77" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-    </row>
-    <row r="19" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="93" t="s">
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="90"/>
+    </row>
+    <row r="19" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109" t="s">
+      <c r="D19" s="107"/>
+      <c r="E19" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-    </row>
-    <row r="20" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="110" t="n">
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+    </row>
+    <row r="20" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-    </row>
-    <row r="21" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="113" t="n">
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+    </row>
+    <row r="21" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="112" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-    </row>
-    <row r="22" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="114" t="n">
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+    </row>
+    <row r="22" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="113" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
     </row>
     <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="116" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="116" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="117"/>
+      <c r="B26" s="116"/>
     </row>
     <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="117"/>
+      <c r="B27" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -12136,339 +12222,339 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="1.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="67" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="67" width="6.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="67" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="67" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="67" width="25.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="67" width="7.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="67" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="67" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="67" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="66" width="1.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="66" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="66" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="66" width="6.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="66" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="66" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="66" width="25.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="66" width="7.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="66" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="66" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="66" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-    </row>
-    <row r="3" s="71" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="72" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" s="70" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="75"/>
-    </row>
-    <row r="4" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="79" t="s">
+      <c r="I3" s="76"/>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-    </row>
-    <row r="5" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-    </row>
-    <row r="6" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="85" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+    </row>
+    <row r="6" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-    </row>
-    <row r="7" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="87" t="s">
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-    </row>
-    <row r="8" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="89" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+    </row>
+    <row r="8" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-    </row>
-    <row r="9" s="92" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="93" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+    </row>
+    <row r="9" s="91" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="96" t="s">
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="98" t="n">
+    <row r="10" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-    </row>
-    <row r="11" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="98" t="n">
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101"/>
+    </row>
+    <row r="11" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-    </row>
-    <row r="12" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="103" t="n">
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+    </row>
+    <row r="12" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
-    </row>
-    <row r="13" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="98" t="n">
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="97" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-    </row>
-    <row r="14" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="98" t="n">
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
+    </row>
+    <row r="14" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="97" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="102"/>
-    </row>
-    <row r="15" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="103" t="n">
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="101"/>
+    </row>
+    <row r="15" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="102" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
-    </row>
-    <row r="16" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="98" t="n">
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="101"/>
+    </row>
+    <row r="16" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="97" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="102"/>
-    </row>
-    <row r="17" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="104" t="s">
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
+    </row>
+    <row r="17" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105" t="n">
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104" t="n">
         <f aca="false">SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
-    </row>
-    <row r="18" s="78" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="89" t="s">
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+    </row>
+    <row r="18" s="77" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-    </row>
-    <row r="19" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="93" t="s">
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="90"/>
+    </row>
+    <row r="19" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109" t="s">
+      <c r="D19" s="107"/>
+      <c r="E19" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-    </row>
-    <row r="20" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="110" t="n">
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+    </row>
+    <row r="20" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-    </row>
-    <row r="21" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="113" t="n">
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+    </row>
+    <row r="21" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="112" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-    </row>
-    <row r="22" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="114" t="n">
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+    </row>
+    <row r="22" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="113" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
     </row>
     <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="116" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="116" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="117"/>
+      <c r="B26" s="116"/>
     </row>
     <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="117"/>
+      <c r="B27" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -12541,339 +12627,339 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="1.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="67" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="67" width="6.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="67" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="67" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="67" width="25.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="67" width="7.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="67" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="67" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="67" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="66" width="1.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="66" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="66" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="66" width="6.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="66" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="66" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="66" width="25.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="66" width="7.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="66" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="66" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="66" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-    </row>
-    <row r="3" s="71" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="72" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" s="70" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="75"/>
-    </row>
-    <row r="4" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="79" t="s">
+      <c r="I3" s="76"/>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-    </row>
-    <row r="5" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-    </row>
-    <row r="6" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="85" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+    </row>
+    <row r="6" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-    </row>
-    <row r="7" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="87" t="s">
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-    </row>
-    <row r="8" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="89" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+    </row>
+    <row r="8" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-    </row>
-    <row r="9" s="92" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="93" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+    </row>
+    <row r="9" s="91" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="96" t="s">
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="98" t="n">
+    <row r="10" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-    </row>
-    <row r="11" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="98" t="n">
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101"/>
+    </row>
+    <row r="11" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-    </row>
-    <row r="12" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="103" t="n">
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+    </row>
+    <row r="12" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
-    </row>
-    <row r="13" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="98" t="n">
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="97" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-    </row>
-    <row r="14" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="98" t="n">
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
+    </row>
+    <row r="14" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="97" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="102"/>
-    </row>
-    <row r="15" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="103" t="n">
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="101"/>
+    </row>
+    <row r="15" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="102" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
-    </row>
-    <row r="16" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="98" t="n">
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="101"/>
+    </row>
+    <row r="16" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="97" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="102"/>
-    </row>
-    <row r="17" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="104" t="s">
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
+    </row>
+    <row r="17" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105" t="n">
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104" t="n">
         <f aca="false">SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
-    </row>
-    <row r="18" s="78" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="89" t="s">
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+    </row>
+    <row r="18" s="77" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-    </row>
-    <row r="19" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="93" t="s">
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="90"/>
+    </row>
+    <row r="19" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109" t="s">
+      <c r="D19" s="107"/>
+      <c r="E19" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-    </row>
-    <row r="20" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="110" t="n">
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+    </row>
+    <row r="20" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-    </row>
-    <row r="21" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="113" t="n">
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+    </row>
+    <row r="21" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="112" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-    </row>
-    <row r="22" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="114" t="n">
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+    </row>
+    <row r="22" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="113" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
     </row>
     <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="116" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="116" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="117"/>
+      <c r="B26" s="116"/>
     </row>
     <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="117"/>
+      <c r="B27" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -12946,339 +13032,339 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="1.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="67" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="67" width="6.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="67" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="67" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="67" width="25.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="67" width="7.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="67" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="67" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="67" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="66" width="1.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="66" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="66" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="66" width="6.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="66" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="66" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="66" width="25.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="66" width="7.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="66" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="66" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="66" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-    </row>
-    <row r="3" s="71" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="72" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" s="70" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="75"/>
-    </row>
-    <row r="4" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="79" t="s">
+      <c r="I3" s="76"/>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-    </row>
-    <row r="5" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-    </row>
-    <row r="6" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="85" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+    </row>
+    <row r="6" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-    </row>
-    <row r="7" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="87" t="s">
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-    </row>
-    <row r="8" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="89" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+    </row>
+    <row r="8" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-    </row>
-    <row r="9" s="92" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="93" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+    </row>
+    <row r="9" s="91" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="96" t="s">
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="98" t="n">
+    <row r="10" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-    </row>
-    <row r="11" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="98" t="n">
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101"/>
+    </row>
+    <row r="11" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-    </row>
-    <row r="12" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="103" t="n">
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+    </row>
+    <row r="12" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
-    </row>
-    <row r="13" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="98" t="n">
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="97" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-    </row>
-    <row r="14" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="98" t="n">
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
+    </row>
+    <row r="14" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="97" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="102"/>
-    </row>
-    <row r="15" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="103" t="n">
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="101"/>
+    </row>
+    <row r="15" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="102" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
-    </row>
-    <row r="16" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="98" t="n">
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="101"/>
+    </row>
+    <row r="16" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="97" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="102"/>
-    </row>
-    <row r="17" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="104" t="s">
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
+    </row>
+    <row r="17" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105" t="n">
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104" t="n">
         <f aca="false">SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
-    </row>
-    <row r="18" s="78" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="89" t="s">
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+    </row>
+    <row r="18" s="77" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-    </row>
-    <row r="19" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="93" t="s">
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="90"/>
+    </row>
+    <row r="19" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109" t="s">
+      <c r="D19" s="107"/>
+      <c r="E19" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-    </row>
-    <row r="20" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="110" t="n">
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+    </row>
+    <row r="20" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-    </row>
-    <row r="21" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="113" t="n">
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+    </row>
+    <row r="21" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="112" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-    </row>
-    <row r="22" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="114" t="n">
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+    </row>
+    <row r="22" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="113" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
     </row>
     <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="116" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="116" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="117"/>
+      <c r="B26" s="116"/>
     </row>
     <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="117"/>
+      <c r="B27" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -13482,77 +13568,77 @@
     <row r="18" s="29" customFormat="true" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="26"/>
       <c r="B18" s="31"/>
-      <c r="C18" s="32"/>
+      <c r="C18" s="30"/>
       <c r="D18" s="28"/>
     </row>
     <row r="19" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="26"/>
       <c r="B19" s="31"/>
-      <c r="C19" s="33"/>
+      <c r="C19" s="32"/>
       <c r="D19" s="28"/>
     </row>
     <row r="20" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="26"/>
       <c r="B20" s="31"/>
-      <c r="C20" s="34"/>
+      <c r="C20" s="33"/>
       <c r="D20" s="28"/>
     </row>
     <row r="21" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="26"/>
       <c r="B21" s="31"/>
-      <c r="C21" s="34"/>
+      <c r="C21" s="33"/>
       <c r="D21" s="28"/>
     </row>
     <row r="95" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A95" s="35"/>
+      <c r="A95" s="34"/>
     </row>
     <row r="96" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A96" s="35"/>
+      <c r="A96" s="34"/>
     </row>
     <row r="97" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A97" s="35"/>
+      <c r="A97" s="34"/>
     </row>
     <row r="98" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A98" s="35"/>
+      <c r="A98" s="34"/>
     </row>
     <row r="99" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A99" s="35"/>
+      <c r="A99" s="34"/>
     </row>
     <row r="100" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A100" s="35"/>
+      <c r="A100" s="34"/>
     </row>
     <row r="101" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A101" s="35"/>
+      <c r="A101" s="34"/>
     </row>
     <row r="102" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A102" s="35"/>
+      <c r="A102" s="34"/>
     </row>
     <row r="103" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A103" s="35"/>
+      <c r="A103" s="34"/>
     </row>
     <row r="104" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A104" s="35"/>
+      <c r="A104" s="34"/>
     </row>
     <row r="105" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A105" s="35"/>
+      <c r="A105" s="34"/>
     </row>
     <row r="106" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A106" s="35"/>
+      <c r="A106" s="34"/>
     </row>
     <row r="107" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A107" s="35"/>
+      <c r="A107" s="34"/>
     </row>
     <row r="108" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A108" s="35"/>
+      <c r="A108" s="34"/>
     </row>
     <row r="109" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A109" s="35"/>
+      <c r="A109" s="34"/>
     </row>
     <row r="110" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A110" s="35"/>
+      <c r="A110" s="34"/>
     </row>
     <row r="111" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A111" s="35"/>
+      <c r="A111" s="34"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -13581,327 +13667,327 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="36" width="9.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="36" width="9.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="36" width="13.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="36" width="9.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="36" width="15.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="36" width="9.62"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="36" width="8"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="35" width="9.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="2" style="35" width="9.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="35" width="13.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="35" width="9.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="35" width="15.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="35" width="9.61"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="9" style="35" width="8"/>
   </cols>
   <sheetData>
-    <row r="1" s="38" customFormat="true" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="37"/>
-    </row>
-    <row r="2" s="38" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+    <row r="1" s="37" customFormat="true" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="36"/>
+    </row>
+    <row r="2" s="37" customFormat="true" ht="25.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="A2" s="4" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" s="41" customFormat="true" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="39" t="s">
+    <row r="3" s="40" customFormat="true" ht="22.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="38" t="s">
         <v>14</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
-      <c r="H3" s="40"/>
-      <c r="I3" s="40"/>
-    </row>
-    <row r="4" s="38" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="B3" s="39"/>
+      <c r="C3" s="38"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="39"/>
+    </row>
+    <row r="4" s="37" customFormat="true" ht="17.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="5" s="38" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A5" s="42"/>
-    </row>
-    <row r="6" s="38" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A6" s="42"/>
-    </row>
-    <row r="7" s="38" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A7" s="42"/>
-    </row>
-    <row r="8" s="38" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="42"/>
-    </row>
-    <row r="9" s="38" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A9" s="42"/>
-    </row>
-    <row r="10" s="38" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A10" s="42"/>
-    </row>
-    <row r="11" s="38" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A11" s="42"/>
-    </row>
-    <row r="12" s="38" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A12" s="42"/>
-    </row>
-    <row r="13" s="38" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A13" s="42"/>
-    </row>
-    <row r="14" s="38" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A14" s="42"/>
-    </row>
-    <row r="15" s="38" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A15" s="43"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="44"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="44"/>
-      <c r="G15" s="44"/>
-      <c r="H15" s="44"/>
-    </row>
-    <row r="16" s="46" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A16" s="45" t="s">
+    <row r="5" s="37" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="41"/>
+    </row>
+    <row r="6" s="37" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="41"/>
+    </row>
+    <row r="7" s="37" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="41"/>
+    </row>
+    <row r="8" s="37" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="41"/>
+    </row>
+    <row r="9" s="37" customFormat="true" ht="9.75" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A9" s="41"/>
+    </row>
+    <row r="10" s="37" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="41"/>
+    </row>
+    <row r="11" s="37" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="41"/>
+    </row>
+    <row r="12" s="37" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="41"/>
+    </row>
+    <row r="13" s="37" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="41"/>
+    </row>
+    <row r="14" s="37" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="41"/>
+    </row>
+    <row r="15" s="37" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="42"/>
+      <c r="B15" s="43"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="43"/>
+      <c r="G15" s="43"/>
+      <c r="H15" s="43"/>
+    </row>
+    <row r="16" s="45" customFormat="true" ht="45" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A16" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="B16" s="45"/>
-      <c r="C16" s="45"/>
-      <c r="D16" s="45"/>
-      <c r="E16" s="45"/>
-      <c r="F16" s="45"/>
-      <c r="G16" s="45"/>
-      <c r="H16" s="45"/>
-    </row>
-    <row r="17" s="46" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A17" s="47"/>
-      <c r="B17" s="48"/>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
-      <c r="F17" s="49"/>
-      <c r="G17" s="49"/>
-      <c r="H17" s="49"/>
-    </row>
-    <row r="18" s="38" customFormat="true" ht="53.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A18" s="50" t="s">
+      <c r="B16" s="44"/>
+      <c r="C16" s="44"/>
+      <c r="D16" s="44"/>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44"/>
+      <c r="H16" s="44"/>
+    </row>
+    <row r="17" s="45" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="46"/>
+      <c r="B17" s="47"/>
+      <c r="C17" s="48"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="48"/>
+      <c r="F17" s="48"/>
+      <c r="G17" s="48"/>
+      <c r="H17" s="48"/>
+    </row>
+    <row r="18" s="37" customFormat="true" ht="53.4" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="49" t="s">
         <v>17</v>
       </c>
-      <c r="B18" s="50"/>
-      <c r="C18" s="50"/>
-      <c r="D18" s="50"/>
-      <c r="E18" s="50"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="50"/>
-      <c r="H18" s="50"/>
-    </row>
-    <row r="19" s="38" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A19" s="43"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="44"/>
-      <c r="D19" s="44"/>
-      <c r="E19" s="44"/>
-      <c r="F19" s="44"/>
-      <c r="G19" s="44"/>
-      <c r="H19" s="44"/>
-    </row>
-    <row r="20" s="38" customFormat="true" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A20" s="51"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="44"/>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="44"/>
-      <c r="H20" s="44"/>
-    </row>
-    <row r="21" s="38" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A21" s="52"/>
-      <c r="B21" s="44"/>
-      <c r="C21" s="44"/>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="44"/>
-      <c r="H21" s="44"/>
-    </row>
-    <row r="22" s="38" customFormat="true" ht="22.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A22" s="53" t="s">
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
+      <c r="G18" s="49"/>
+      <c r="H18" s="49"/>
+    </row>
+    <row r="19" s="37" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="42"/>
+      <c r="B19" s="43"/>
+      <c r="C19" s="43"/>
+      <c r="D19" s="43"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="43"/>
+      <c r="G19" s="43"/>
+      <c r="H19" s="43"/>
+    </row>
+    <row r="20" s="37" customFormat="true" ht="46.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="50"/>
+      <c r="B20" s="43"/>
+      <c r="C20" s="43"/>
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="43"/>
+      <c r="H20" s="43"/>
+    </row>
+    <row r="21" s="37" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="51"/>
+      <c r="B21" s="43"/>
+      <c r="C21" s="43"/>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="43"/>
+      <c r="H21" s="43"/>
+    </row>
+    <row r="22" s="37" customFormat="true" ht="22.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A22" s="52" t="s">
         <v>18</v>
       </c>
-      <c r="B22" s="53"/>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-    </row>
-    <row r="23" s="38" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A23" s="43"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="44"/>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-    </row>
-    <row r="24" s="38" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A24" s="43"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="44"/>
-      <c r="D24" s="44"/>
-      <c r="E24" s="44"/>
-      <c r="F24" s="44"/>
-      <c r="G24" s="44"/>
-      <c r="H24" s="44"/>
-    </row>
-    <row r="25" s="38" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A25" s="43"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="44"/>
-      <c r="D25" s="44"/>
-      <c r="E25" s="44"/>
-      <c r="F25" s="44"/>
-      <c r="G25" s="44"/>
-      <c r="H25" s="44"/>
-    </row>
-    <row r="26" s="38" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A26" s="43"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="44"/>
-      <c r="D26" s="44"/>
-      <c r="E26" s="44"/>
-      <c r="F26" s="44"/>
-      <c r="G26" s="44"/>
-      <c r="H26" s="44"/>
-    </row>
-    <row r="27" s="38" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A27" s="43"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="44"/>
-      <c r="D27" s="44"/>
-      <c r="E27" s="44"/>
-      <c r="F27" s="44"/>
-      <c r="G27" s="44"/>
-      <c r="H27" s="44"/>
-    </row>
-    <row r="28" s="38" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A28" s="43"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="44"/>
-      <c r="D28" s="44"/>
-      <c r="E28" s="44"/>
-      <c r="F28" s="44"/>
-      <c r="G28" s="44"/>
-      <c r="H28" s="44"/>
-    </row>
-    <row r="29" s="55" customFormat="true" ht="22.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A29" s="54" t="s">
+      <c r="B22" s="52"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="52"/>
+      <c r="H22" s="52"/>
+    </row>
+    <row r="23" s="37" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="42"/>
+      <c r="B23" s="43"/>
+      <c r="C23" s="43"/>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="43"/>
+      <c r="H23" s="43"/>
+    </row>
+    <row r="24" s="37" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A24" s="42"/>
+      <c r="B24" s="43"/>
+      <c r="C24" s="43"/>
+      <c r="D24" s="43"/>
+      <c r="E24" s="43"/>
+      <c r="F24" s="43"/>
+      <c r="G24" s="43"/>
+      <c r="H24" s="43"/>
+    </row>
+    <row r="25" s="37" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A25" s="42"/>
+      <c r="B25" s="43"/>
+      <c r="C25" s="43"/>
+      <c r="D25" s="43"/>
+      <c r="E25" s="43"/>
+      <c r="F25" s="43"/>
+      <c r="G25" s="43"/>
+      <c r="H25" s="43"/>
+    </row>
+    <row r="26" s="37" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A26" s="42"/>
+      <c r="B26" s="43"/>
+      <c r="C26" s="43"/>
+      <c r="D26" s="43"/>
+      <c r="E26" s="43"/>
+      <c r="F26" s="43"/>
+      <c r="G26" s="43"/>
+      <c r="H26" s="43"/>
+    </row>
+    <row r="27" s="37" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A27" s="42"/>
+      <c r="B27" s="43"/>
+      <c r="C27" s="43"/>
+      <c r="D27" s="43"/>
+      <c r="E27" s="43"/>
+      <c r="F27" s="43"/>
+      <c r="G27" s="43"/>
+      <c r="H27" s="43"/>
+    </row>
+    <row r="28" s="37" customFormat="true" ht="18" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A28" s="42"/>
+      <c r="B28" s="43"/>
+      <c r="C28" s="43"/>
+      <c r="D28" s="43"/>
+      <c r="E28" s="43"/>
+      <c r="F28" s="43"/>
+      <c r="G28" s="43"/>
+      <c r="H28" s="43"/>
+    </row>
+    <row r="29" s="54" customFormat="true" ht="22.15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A29" s="53" t="s">
         <v>19</v>
       </c>
-      <c r="B29" s="54"/>
-      <c r="C29" s="54"/>
-      <c r="D29" s="54"/>
-      <c r="E29" s="54"/>
-      <c r="F29" s="54"/>
-      <c r="G29" s="54"/>
-      <c r="H29" s="54"/>
-    </row>
-    <row r="30" s="55" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A30" s="56"/>
-      <c r="B30" s="57"/>
-      <c r="C30" s="57"/>
-      <c r="D30" s="57"/>
-      <c r="E30" s="57"/>
-      <c r="F30" s="57"/>
-      <c r="G30" s="57"/>
-      <c r="H30" s="57"/>
-    </row>
-    <row r="31" s="55" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A31" s="56"/>
-      <c r="B31" s="57"/>
-      <c r="C31" s="57"/>
-      <c r="D31" s="57"/>
-      <c r="E31" s="57"/>
-      <c r="F31" s="57"/>
-      <c r="G31" s="57"/>
-      <c r="H31" s="57"/>
-    </row>
-    <row r="32" s="55" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A32" s="56"/>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-      <c r="D32" s="57"/>
-      <c r="E32" s="57"/>
-      <c r="F32" s="57"/>
-      <c r="G32" s="57"/>
-      <c r="H32" s="57"/>
-    </row>
-    <row r="33" s="61" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A33" s="58" t="s">
+      <c r="B29" s="53"/>
+      <c r="C29" s="53"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="53"/>
+      <c r="G29" s="53"/>
+      <c r="H29" s="53"/>
+    </row>
+    <row r="30" s="54" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="55"/>
+      <c r="B30" s="56"/>
+      <c r="C30" s="56"/>
+      <c r="D30" s="56"/>
+      <c r="E30" s="56"/>
+      <c r="F30" s="56"/>
+      <c r="G30" s="56"/>
+      <c r="H30" s="56"/>
+    </row>
+    <row r="31" s="54" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A31" s="55"/>
+      <c r="B31" s="56"/>
+      <c r="C31" s="56"/>
+      <c r="D31" s="56"/>
+      <c r="E31" s="56"/>
+      <c r="F31" s="56"/>
+      <c r="G31" s="56"/>
+      <c r="H31" s="56"/>
+    </row>
+    <row r="32" s="54" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A32" s="55"/>
+      <c r="B32" s="56"/>
+      <c r="C32" s="56"/>
+      <c r="D32" s="56"/>
+      <c r="E32" s="56"/>
+      <c r="F32" s="56"/>
+      <c r="G32" s="56"/>
+      <c r="H32" s="56"/>
+    </row>
+    <row r="33" s="60" customFormat="true" ht="30" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A33" s="57" t="s">
         <v>20</v>
       </c>
-      <c r="B33" s="59"/>
-      <c r="C33" s="58" t="s">
+      <c r="B33" s="58"/>
+      <c r="C33" s="57" t="s">
         <v>21</v>
       </c>
-      <c r="D33" s="59"/>
-      <c r="E33" s="58" t="s">
+      <c r="D33" s="58"/>
+      <c r="E33" s="57" t="s">
         <v>22</v>
       </c>
-      <c r="F33" s="59"/>
-      <c r="G33" s="60" t="s">
+      <c r="F33" s="58"/>
+      <c r="G33" s="59" t="s">
         <v>23</v>
       </c>
-      <c r="H33" s="59"/>
-    </row>
-    <row r="34" s="61" customFormat="true" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A34" s="58" t="s">
+      <c r="H33" s="58"/>
+    </row>
+    <row r="34" s="60" customFormat="true" ht="29.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A34" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="62"/>
-      <c r="D34" s="62"/>
-      <c r="E34" s="58" t="s">
+      <c r="B34" s="61"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="61"/>
+      <c r="E34" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="F34" s="62"/>
-      <c r="G34" s="62"/>
-      <c r="H34" s="62"/>
-    </row>
-    <row r="35" s="38" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A35" s="43"/>
-      <c r="B35" s="44"/>
-      <c r="C35" s="44"/>
-      <c r="D35" s="44"/>
-      <c r="E35" s="44"/>
-      <c r="F35" s="44"/>
-      <c r="G35" s="44"/>
-      <c r="H35" s="44"/>
-    </row>
-    <row r="36" s="38" customFormat="true" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A36" s="63"/>
-      <c r="B36" s="44"/>
-      <c r="C36" s="44"/>
-      <c r="D36" s="44"/>
-      <c r="E36" s="44"/>
-      <c r="F36" s="44"/>
-      <c r="G36" s="44"/>
-      <c r="H36" s="44"/>
-    </row>
-    <row r="37" s="38" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A37" s="64"/>
-      <c r="B37" s="44"/>
-      <c r="C37" s="44"/>
-      <c r="D37" s="44"/>
-      <c r="E37" s="44"/>
-      <c r="F37" s="44"/>
-      <c r="G37" s="44"/>
-      <c r="H37" s="44"/>
-    </row>
-    <row r="38" s="38" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
+      <c r="F34" s="61"/>
+      <c r="G34" s="61"/>
+      <c r="H34" s="61"/>
+    </row>
+    <row r="35" s="37" customFormat="true" ht="18" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A35" s="42"/>
+      <c r="B35" s="43"/>
+      <c r="C35" s="43"/>
+      <c r="D35" s="43"/>
+      <c r="E35" s="43"/>
+      <c r="F35" s="43"/>
+      <c r="G35" s="43"/>
+      <c r="H35" s="43"/>
+    </row>
+    <row r="36" s="37" customFormat="true" ht="19.2" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A36" s="62"/>
+      <c r="B36" s="43"/>
+      <c r="C36" s="43"/>
+      <c r="D36" s="43"/>
+      <c r="E36" s="43"/>
+      <c r="F36" s="43"/>
+      <c r="G36" s="43"/>
+      <c r="H36" s="43"/>
+    </row>
+    <row r="37" s="37" customFormat="true" ht="18.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A37" s="63"/>
+      <c r="B37" s="43"/>
+      <c r="C37" s="43"/>
+      <c r="D37" s="43"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43"/>
+      <c r="G37" s="43"/>
+      <c r="H37" s="43"/>
+    </row>
+    <row r="38" s="37" customFormat="true" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false"/>
     <row r="55" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A55" s="65"/>
+      <c r="A55" s="64"/>
     </row>
     <row r="56" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A56" s="66"/>
+      <c r="A56" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="6">
@@ -13930,377 +14016,377 @@
   </sheetPr>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="M8" activeCellId="0" sqref="M8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="1.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="67" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="67" width="6.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="67" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="67" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="67" width="25.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="67" width="7.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="67" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="67" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="67" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="66" width="1.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="66" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="66" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="66" width="6.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="66" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="66" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="66" width="25.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="66" width="7.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="66" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="66" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="66" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-    </row>
-    <row r="3" s="71" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="72" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" s="70" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="73" t="s">
+      <c r="C3" s="72" t="s">
         <v>28</v>
       </c>
-      <c r="D3" s="74" t="s">
+      <c r="D3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="74" t="n">
+      <c r="E3" s="73" t="n">
         <v>7.18</v>
       </c>
-      <c r="F3" s="74" t="s">
+      <c r="F3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="75" t="s">
+      <c r="G3" s="74" t="s">
         <v>31</v>
       </c>
-      <c r="H3" s="76" t="s">
+      <c r="H3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="75"/>
-    </row>
-    <row r="4" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="79" t="s">
+      <c r="I3" s="76"/>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-    </row>
-    <row r="5" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="C5" s="83" t="s">
         <v>35</v>
       </c>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-    </row>
-    <row r="6" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="85" t="s">
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+    </row>
+    <row r="6" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="86" t="n">
+      <c r="C6" s="85" t="n">
         <v>7.18</v>
       </c>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-    </row>
-    <row r="7" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="87" t="s">
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="88" t="n">
+      <c r="C7" s="87" t="n">
         <v>7.18</v>
       </c>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-    </row>
-    <row r="8" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="89" t="s">
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+    </row>
+    <row r="8" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-    </row>
-    <row r="9" s="92" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="93" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+    </row>
+    <row r="9" s="91" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="96" t="s">
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="98" t="n">
+    <row r="10" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="99" t="s">
+      <c r="C10" s="98" t="s">
         <v>44</v>
       </c>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100" t="n">
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99" t="n">
         <v>1</v>
       </c>
-      <c r="G10" s="101" t="s">
+      <c r="G10" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102" t="s">
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="98" t="n">
+    <row r="11" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="99" t="s">
+      <c r="C11" s="98" t="s">
         <v>46</v>
       </c>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100" t="n">
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99" t="n">
         <v>2</v>
       </c>
-      <c r="G11" s="101" t="s">
+      <c r="G11" s="100" t="s">
         <v>45</v>
       </c>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102" t="s">
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="12" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="103" t="n">
+    <row r="12" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
-    </row>
-    <row r="13" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="98" t="n">
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="97" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-    </row>
-    <row r="14" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="98" t="n">
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
+    </row>
+    <row r="14" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="97" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="102"/>
-    </row>
-    <row r="15" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="103" t="n">
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="101"/>
+    </row>
+    <row r="15" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="102" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
-    </row>
-    <row r="16" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="98" t="n">
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="101"/>
+    </row>
+    <row r="16" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="97" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="102"/>
-    </row>
-    <row r="17" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="104" t="s">
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
+    </row>
+    <row r="17" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105" t="n">
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104" t="n">
         <f aca="false">SUM(F10:F16)</f>
         <v>3</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
-    </row>
-    <row r="18" s="78" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="89" t="s">
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+    </row>
+    <row r="18" s="77" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-    </row>
-    <row r="19" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="93" t="s">
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="90"/>
+    </row>
+    <row r="19" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109" t="s">
+      <c r="D19" s="107"/>
+      <c r="E19" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-    </row>
-    <row r="20" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="110" t="n">
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+    </row>
+    <row r="20" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="111" t="s">
+      <c r="C20" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112" t="s">
+      <c r="D20" s="110"/>
+      <c r="E20" s="111" t="s">
         <v>51</v>
       </c>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-    </row>
-    <row r="21" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="113" t="n">
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+    </row>
+    <row r="21" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="112" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-    </row>
-    <row r="22" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="114" t="n">
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+    </row>
+    <row r="22" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="113" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
     </row>
     <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="116" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="116" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="117"/>
+      <c r="B26" s="116"/>
     </row>
     <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="117"/>
+      <c r="B27" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -14367,352 +14453,384 @@
   </sheetPr>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="1.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="67" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="67" width="6.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="67" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="67" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="67" width="25.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="67" width="7.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="67" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="67" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="67" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="66" width="1.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="66" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="66" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="66" width="6.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="66" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="66" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="66" width="25.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="66" width="7.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="66" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="66" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="66" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-    </row>
-    <row r="3" s="71" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="72" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" s="70" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="72" t="s">
+        <v>28</v>
+      </c>
+      <c r="D3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74" t="s">
+      <c r="E3" s="73" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="F3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76" t="s">
+      <c r="G3" s="74" t="s">
+        <v>54</v>
+      </c>
+      <c r="H3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="75"/>
-    </row>
-    <row r="4" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="79" t="s">
+      <c r="I3" s="76" t="n">
+        <v>5</v>
+      </c>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-    </row>
-    <row r="5" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-    </row>
-    <row r="6" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="85" t="s">
+      <c r="C5" s="83" t="s">
+        <v>55</v>
+      </c>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+    </row>
+    <row r="6" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-    </row>
-    <row r="7" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="87" t="s">
+      <c r="C6" s="73" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-    </row>
-    <row r="8" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="89" t="s">
+      <c r="C7" s="73" t="n">
+        <v>7.19</v>
+      </c>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+    </row>
+    <row r="8" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-    </row>
-    <row r="9" s="92" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="93" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+    </row>
+    <row r="9" s="91" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="96" t="s">
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="98" t="n">
+    <row r="10" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-    </row>
-    <row r="11" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="98" t="n">
+      <c r="C10" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="117"/>
+      <c r="E10" s="117"/>
+      <c r="F10" s="99" t="n">
+        <v>4</v>
+      </c>
+      <c r="G10" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="11" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-    </row>
-    <row r="12" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="103" t="n">
+      <c r="C11" s="117" t="s">
+        <v>56</v>
+      </c>
+      <c r="D11" s="117"/>
+      <c r="E11" s="117"/>
+      <c r="F11" s="99" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
-    </row>
-    <row r="13" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="98" t="n">
+      <c r="G11" s="100" t="s">
+        <v>45</v>
+      </c>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="12" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="102" t="n">
+        <v>3</v>
+      </c>
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="97" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-    </row>
-    <row r="14" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="98" t="n">
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
+    </row>
+    <row r="14" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="97" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="102"/>
-    </row>
-    <row r="15" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="103" t="n">
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="101"/>
+    </row>
+    <row r="15" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="102" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
-    </row>
-    <row r="16" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="98" t="n">
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="101"/>
+    </row>
+    <row r="16" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="97" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="102"/>
-    </row>
-    <row r="17" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="104" t="s">
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
+    </row>
+    <row r="17" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105" t="n">
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104" t="n">
         <f aca="false">SUM(F10:F16)</f>
-        <v>0</v>
-      </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
-    </row>
-    <row r="18" s="78" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="89" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+    </row>
+    <row r="18" s="77" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-    </row>
-    <row r="19" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="93" t="s">
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="90"/>
+    </row>
+    <row r="19" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109" t="s">
+      <c r="D19" s="107"/>
+      <c r="E19" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-    </row>
-    <row r="20" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="110" t="n">
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+    </row>
+    <row r="20" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-    </row>
-    <row r="21" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="113" t="n">
+      <c r="C20" s="110" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111" t="s">
+        <v>51</v>
+      </c>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+    </row>
+    <row r="21" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="112" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-    </row>
-    <row r="22" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="114" t="n">
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+    </row>
+    <row r="22" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="113" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
     </row>
     <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="116" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="116" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="117"/>
+      <c r="B26" s="116"/>
     </row>
     <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="117"/>
+      <c r="B27" s="116"/>
     </row>
   </sheetData>
-  <mergeCells count="30">
+  <mergeCells count="28">
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="C5:J5"/>
-    <mergeCell ref="C6:J6"/>
-    <mergeCell ref="C7:J7"/>
     <mergeCell ref="C9:E9"/>
     <mergeCell ref="G9:I9"/>
     <mergeCell ref="C10:E10"/>
@@ -14778,339 +14896,339 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="1.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="67" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="67" width="6.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="67" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="67" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="67" width="25.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="67" width="7.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="67" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="67" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="67" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="66" width="1.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="66" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="66" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="66" width="6.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="66" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="66" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="66" width="25.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="66" width="7.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="66" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="66" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="66" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-    </row>
-    <row r="3" s="71" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="72" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" s="70" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="75"/>
-    </row>
-    <row r="4" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="79" t="s">
+      <c r="I3" s="76"/>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-    </row>
-    <row r="5" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-    </row>
-    <row r="6" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="85" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+    </row>
+    <row r="6" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-    </row>
-    <row r="7" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="87" t="s">
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-    </row>
-    <row r="8" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="89" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+    </row>
+    <row r="8" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-    </row>
-    <row r="9" s="92" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="93" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+    </row>
+    <row r="9" s="91" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="96" t="s">
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="98" t="n">
+    <row r="10" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-    </row>
-    <row r="11" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="98" t="n">
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101"/>
+    </row>
+    <row r="11" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-    </row>
-    <row r="12" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="103" t="n">
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+    </row>
+    <row r="12" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
-    </row>
-    <row r="13" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="98" t="n">
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="97" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-    </row>
-    <row r="14" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="98" t="n">
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
+    </row>
+    <row r="14" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="97" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="102"/>
-    </row>
-    <row r="15" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="103" t="n">
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="101"/>
+    </row>
+    <row r="15" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="102" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
-    </row>
-    <row r="16" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="98" t="n">
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="101"/>
+    </row>
+    <row r="16" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="97" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="102"/>
-    </row>
-    <row r="17" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="104" t="s">
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
+    </row>
+    <row r="17" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105" t="n">
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104" t="n">
         <f aca="false">SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
-    </row>
-    <row r="18" s="78" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="89" t="s">
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+    </row>
+    <row r="18" s="77" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-    </row>
-    <row r="19" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="93" t="s">
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="90"/>
+    </row>
+    <row r="19" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109" t="s">
+      <c r="D19" s="107"/>
+      <c r="E19" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-    </row>
-    <row r="20" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="110" t="n">
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+    </row>
+    <row r="20" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-    </row>
-    <row r="21" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="113" t="n">
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+    </row>
+    <row r="21" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="112" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-    </row>
-    <row r="22" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="114" t="n">
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+    </row>
+    <row r="22" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="113" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
     </row>
     <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="116" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="116" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="117"/>
+      <c r="B26" s="116"/>
     </row>
     <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="117"/>
+      <c r="B27" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -15183,339 +15301,339 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="1.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="67" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="67" width="6.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="67" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="67" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="67" width="25.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="67" width="7.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="67" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="67" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="67" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="66" width="1.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="66" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="66" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="66" width="6.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="66" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="66" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="66" width="25.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="66" width="7.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="66" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="66" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="66" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-    </row>
-    <row r="3" s="71" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="72" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" s="70" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="75"/>
-    </row>
-    <row r="4" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="79" t="s">
+      <c r="I3" s="76"/>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-    </row>
-    <row r="5" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-    </row>
-    <row r="6" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="85" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+    </row>
+    <row r="6" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-    </row>
-    <row r="7" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="87" t="s">
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-    </row>
-    <row r="8" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="89" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+    </row>
+    <row r="8" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-    </row>
-    <row r="9" s="92" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="93" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+    </row>
+    <row r="9" s="91" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="96" t="s">
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="98" t="n">
+    <row r="10" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-    </row>
-    <row r="11" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="98" t="n">
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101"/>
+    </row>
+    <row r="11" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-    </row>
-    <row r="12" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="103" t="n">
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+    </row>
+    <row r="12" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
-    </row>
-    <row r="13" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="98" t="n">
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="97" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-    </row>
-    <row r="14" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="98" t="n">
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
+    </row>
+    <row r="14" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="97" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="102"/>
-    </row>
-    <row r="15" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="103" t="n">
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="101"/>
+    </row>
+    <row r="15" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="102" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
-    </row>
-    <row r="16" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="98" t="n">
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="101"/>
+    </row>
+    <row r="16" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="97" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="102"/>
-    </row>
-    <row r="17" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="104" t="s">
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
+    </row>
+    <row r="17" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105" t="n">
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104" t="n">
         <f aca="false">SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
-    </row>
-    <row r="18" s="78" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="89" t="s">
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+    </row>
+    <row r="18" s="77" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-    </row>
-    <row r="19" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="93" t="s">
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="90"/>
+    </row>
+    <row r="19" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109" t="s">
+      <c r="D19" s="107"/>
+      <c r="E19" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-    </row>
-    <row r="20" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="110" t="n">
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+    </row>
+    <row r="20" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-    </row>
-    <row r="21" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="113" t="n">
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+    </row>
+    <row r="21" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="112" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-    </row>
-    <row r="22" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="114" t="n">
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+    </row>
+    <row r="22" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="113" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
     </row>
     <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="116" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="116" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="117"/>
+      <c r="B26" s="116"/>
     </row>
     <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="117"/>
+      <c r="B27" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -15588,339 +15706,339 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="1.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="67" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="67" width="6.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="67" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="67" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="67" width="25.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="67" width="7.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="67" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="67" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="67" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="66" width="1.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="66" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="66" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="66" width="6.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="66" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="66" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="66" width="25.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="66" width="7.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="66" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="66" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="66" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-    </row>
-    <row r="3" s="71" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="72" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" s="70" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="75"/>
-    </row>
-    <row r="4" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="79" t="s">
+      <c r="I3" s="76"/>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-    </row>
-    <row r="5" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-    </row>
-    <row r="6" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="85" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+    </row>
+    <row r="6" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-    </row>
-    <row r="7" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="87" t="s">
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-    </row>
-    <row r="8" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="89" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+    </row>
+    <row r="8" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-    </row>
-    <row r="9" s="92" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="93" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+    </row>
+    <row r="9" s="91" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="96" t="s">
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="98" t="n">
+    <row r="10" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-    </row>
-    <row r="11" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="98" t="n">
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101"/>
+    </row>
+    <row r="11" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-    </row>
-    <row r="12" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="103" t="n">
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+    </row>
+    <row r="12" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
-    </row>
-    <row r="13" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="98" t="n">
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="97" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-    </row>
-    <row r="14" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="98" t="n">
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
+    </row>
+    <row r="14" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="97" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="102"/>
-    </row>
-    <row r="15" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="103" t="n">
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="101"/>
+    </row>
+    <row r="15" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="102" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
-    </row>
-    <row r="16" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="98" t="n">
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="101"/>
+    </row>
+    <row r="16" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="97" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="102"/>
-    </row>
-    <row r="17" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="104" t="s">
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
+    </row>
+    <row r="17" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105" t="n">
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104" t="n">
         <f aca="false">SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
-    </row>
-    <row r="18" s="78" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="89" t="s">
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+    </row>
+    <row r="18" s="77" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-    </row>
-    <row r="19" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="93" t="s">
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="90"/>
+    </row>
+    <row r="19" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109" t="s">
+      <c r="D19" s="107"/>
+      <c r="E19" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-    </row>
-    <row r="20" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="110" t="n">
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+    </row>
+    <row r="20" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-    </row>
-    <row r="21" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="113" t="n">
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+    </row>
+    <row r="21" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="112" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-    </row>
-    <row r="22" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="114" t="n">
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+    </row>
+    <row r="22" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="113" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
     </row>
     <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="116" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="116" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="117"/>
+      <c r="B26" s="116"/>
     </row>
     <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="117"/>
+      <c r="B27" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="30">
@@ -15993,339 +16111,339 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="67" width="1.26"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="67" width="9.13"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="67" width="19.63"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="67" width="6.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="67" width="22.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="67" width="14.37"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="67" width="25.25"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="67" width="7.76"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="67" width="16.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="67" width="12.5"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="67" width="9"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="66" width="1.26"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="66" width="9.13"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="66" width="19.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="66" width="6.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="66" width="22.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="66" width="14.37"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="66" width="25.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="8" min="8" style="66" width="7.76"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="66" width="16.87"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="10" min="10" style="66" width="12.5"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="11" style="66" width="9"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="47.25" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="67" t="s">
         <v>26</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
     </row>
     <row r="2" customFormat="false" ht="7.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B2" s="69"/>
-      <c r="C2" s="70"/>
-      <c r="D2" s="70"/>
-      <c r="E2" s="70"/>
-      <c r="F2" s="70"/>
-      <c r="G2" s="70"/>
-      <c r="H2" s="70"/>
-      <c r="I2" s="70"/>
-      <c r="J2" s="70"/>
-    </row>
-    <row r="3" s="71" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B3" s="72" t="s">
+      <c r="B2" s="68"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+    </row>
+    <row r="3" s="70" customFormat="true" ht="21" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="73"/>
-      <c r="D3" s="74" t="s">
+      <c r="C3" s="72"/>
+      <c r="D3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="74"/>
-      <c r="F3" s="74" t="s">
+      <c r="E3" s="73"/>
+      <c r="F3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="75"/>
-      <c r="H3" s="76" t="s">
+      <c r="G3" s="74"/>
+      <c r="H3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="77"/>
-      <c r="J3" s="75"/>
-    </row>
-    <row r="4" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B4" s="79" t="s">
+      <c r="I3" s="76"/>
+      <c r="J3" s="74"/>
+    </row>
+    <row r="4" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B4" s="78" t="s">
         <v>33</v>
       </c>
-      <c r="C4" s="80"/>
-      <c r="D4" s="80"/>
-      <c r="E4" s="80"/>
-      <c r="F4" s="80"/>
-      <c r="G4" s="80"/>
-      <c r="H4" s="80"/>
-      <c r="I4" s="80"/>
-      <c r="J4" s="81"/>
-    </row>
-    <row r="5" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B5" s="83" t="s">
+      <c r="C4" s="79"/>
+      <c r="D4" s="79"/>
+      <c r="E4" s="79"/>
+      <c r="F4" s="79"/>
+      <c r="G4" s="79"/>
+      <c r="H4" s="79"/>
+      <c r="I4" s="79"/>
+      <c r="J4" s="80"/>
+    </row>
+    <row r="5" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="84"/>
-      <c r="D5" s="84"/>
-      <c r="E5" s="84"/>
-      <c r="F5" s="84"/>
-      <c r="G5" s="84"/>
-      <c r="H5" s="84"/>
-      <c r="I5" s="84"/>
-      <c r="J5" s="84"/>
-    </row>
-    <row r="6" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B6" s="85" t="s">
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="83"/>
+    </row>
+    <row r="6" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
-      <c r="E6" s="86"/>
-      <c r="F6" s="86"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
-      <c r="I6" s="86"/>
-      <c r="J6" s="86"/>
-    </row>
-    <row r="7" s="82" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B7" s="87" t="s">
+      <c r="C6" s="85"/>
+      <c r="D6" s="85"/>
+      <c r="E6" s="85"/>
+      <c r="F6" s="85"/>
+      <c r="G6" s="85"/>
+      <c r="H6" s="85"/>
+      <c r="I6" s="85"/>
+      <c r="J6" s="85"/>
+    </row>
+    <row r="7" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B7" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
-      <c r="F7" s="88"/>
-      <c r="G7" s="88"/>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
-      <c r="J7" s="88"/>
-    </row>
-    <row r="8" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B8" s="89" t="s">
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
+      <c r="F7" s="87"/>
+      <c r="G7" s="87"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
+      <c r="J7" s="87"/>
+    </row>
+    <row r="8" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B8" s="88" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="90"/>
-      <c r="D8" s="90"/>
-      <c r="E8" s="90"/>
-      <c r="F8" s="90"/>
-      <c r="G8" s="90"/>
-      <c r="H8" s="90"/>
-      <c r="I8" s="90"/>
-      <c r="J8" s="91"/>
-    </row>
-    <row r="9" s="92" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B9" s="93" t="s">
+      <c r="C8" s="89"/>
+      <c r="D8" s="89"/>
+      <c r="E8" s="89"/>
+      <c r="F8" s="89"/>
+      <c r="G8" s="89"/>
+      <c r="H8" s="89"/>
+      <c r="I8" s="89"/>
+      <c r="J8" s="90"/>
+    </row>
+    <row r="9" s="91" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B9" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C9" s="94" t="s">
+      <c r="C9" s="93" t="s">
         <v>40</v>
       </c>
-      <c r="D9" s="94"/>
-      <c r="E9" s="94"/>
-      <c r="F9" s="95" t="s">
+      <c r="D9" s="93"/>
+      <c r="E9" s="93"/>
+      <c r="F9" s="94" t="s">
         <v>41</v>
       </c>
-      <c r="G9" s="94" t="s">
+      <c r="G9" s="93" t="s">
         <v>42</v>
       </c>
-      <c r="H9" s="94"/>
-      <c r="I9" s="94"/>
-      <c r="J9" s="96" t="s">
+      <c r="H9" s="93"/>
+      <c r="I9" s="93"/>
+      <c r="J9" s="95" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="10" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B10" s="98" t="n">
+    <row r="10" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B10" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="99"/>
-      <c r="D10" s="99"/>
-      <c r="E10" s="99"/>
-      <c r="F10" s="100"/>
-      <c r="G10" s="101"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-    </row>
-    <row r="11" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B11" s="98" t="n">
+      <c r="C10" s="98"/>
+      <c r="D10" s="98"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="99"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="100"/>
+      <c r="I10" s="100"/>
+      <c r="J10" s="101"/>
+    </row>
+    <row r="11" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B11" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="99"/>
-      <c r="D11" s="99"/>
-      <c r="E11" s="99"/>
-      <c r="F11" s="100"/>
-      <c r="G11" s="101"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-    </row>
-    <row r="12" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B12" s="103" t="n">
+      <c r="C11" s="98"/>
+      <c r="D11" s="98"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="99"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="100"/>
+      <c r="I11" s="100"/>
+      <c r="J11" s="101"/>
+    </row>
+    <row r="12" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B12" s="102" t="n">
         <v>3</v>
       </c>
-      <c r="C12" s="99"/>
-      <c r="D12" s="99"/>
-      <c r="E12" s="99"/>
-      <c r="F12" s="100"/>
-      <c r="G12" s="101"/>
-      <c r="H12" s="101"/>
-      <c r="I12" s="101"/>
-      <c r="J12" s="102"/>
-    </row>
-    <row r="13" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B13" s="98" t="n">
+      <c r="C12" s="98"/>
+      <c r="D12" s="98"/>
+      <c r="E12" s="98"/>
+      <c r="F12" s="99"/>
+      <c r="G12" s="100"/>
+      <c r="H12" s="100"/>
+      <c r="I12" s="100"/>
+      <c r="J12" s="101"/>
+    </row>
+    <row r="13" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B13" s="97" t="n">
         <v>4</v>
       </c>
-      <c r="C13" s="99"/>
-      <c r="D13" s="99"/>
-      <c r="E13" s="99"/>
-      <c r="F13" s="100"/>
-      <c r="G13" s="101"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-    </row>
-    <row r="14" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B14" s="98" t="n">
+      <c r="C13" s="98"/>
+      <c r="D13" s="98"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="99"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="100"/>
+      <c r="I13" s="100"/>
+      <c r="J13" s="101"/>
+    </row>
+    <row r="14" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B14" s="97" t="n">
         <v>5</v>
       </c>
-      <c r="C14" s="99"/>
-      <c r="D14" s="99"/>
-      <c r="E14" s="99"/>
-      <c r="F14" s="100"/>
-      <c r="G14" s="101"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="102"/>
-    </row>
-    <row r="15" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B15" s="103" t="n">
+      <c r="C14" s="98"/>
+      <c r="D14" s="98"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="99"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="100"/>
+      <c r="I14" s="100"/>
+      <c r="J14" s="101"/>
+    </row>
+    <row r="15" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B15" s="102" t="n">
         <v>6</v>
       </c>
-      <c r="C15" s="99"/>
-      <c r="D15" s="99"/>
-      <c r="E15" s="99"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
-    </row>
-    <row r="16" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B16" s="98" t="n">
+      <c r="C15" s="98"/>
+      <c r="D15" s="98"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="99"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="100"/>
+      <c r="I15" s="100"/>
+      <c r="J15" s="101"/>
+    </row>
+    <row r="16" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B16" s="97" t="n">
         <v>7</v>
       </c>
-      <c r="C16" s="99"/>
-      <c r="D16" s="99"/>
-      <c r="E16" s="99"/>
-      <c r="F16" s="100"/>
-      <c r="G16" s="101"/>
-      <c r="H16" s="101"/>
-      <c r="I16" s="101"/>
-      <c r="J16" s="102"/>
-    </row>
-    <row r="17" s="97" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B17" s="104" t="s">
+      <c r="C16" s="98"/>
+      <c r="D16" s="98"/>
+      <c r="E16" s="98"/>
+      <c r="F16" s="99"/>
+      <c r="G16" s="100"/>
+      <c r="H16" s="100"/>
+      <c r="I16" s="100"/>
+      <c r="J16" s="101"/>
+    </row>
+    <row r="17" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B17" s="103" t="s">
         <v>47</v>
       </c>
-      <c r="C17" s="104"/>
-      <c r="D17" s="104"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="105" t="n">
+      <c r="C17" s="103"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="103"/>
+      <c r="F17" s="104" t="n">
         <f aca="false">SUM(F10:F16)</f>
         <v>0</v>
       </c>
-      <c r="G17" s="106"/>
-      <c r="H17" s="106"/>
-      <c r="I17" s="106"/>
-      <c r="J17" s="107"/>
-    </row>
-    <row r="18" s="78" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B18" s="89" t="s">
+      <c r="G17" s="105"/>
+      <c r="H17" s="105"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="106"/>
+    </row>
+    <row r="18" s="77" customFormat="true" ht="22.5" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B18" s="88" t="s">
         <v>48</v>
       </c>
-      <c r="C18" s="90"/>
-      <c r="D18" s="90"/>
-      <c r="E18" s="90"/>
-      <c r="F18" s="90"/>
-      <c r="G18" s="90"/>
-      <c r="H18" s="90"/>
-      <c r="I18" s="90"/>
-      <c r="J18" s="91"/>
-    </row>
-    <row r="19" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B19" s="93" t="s">
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="H18" s="89"/>
+      <c r="I18" s="89"/>
+      <c r="J18" s="90"/>
+    </row>
+    <row r="19" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B19" s="92" t="s">
         <v>39</v>
       </c>
-      <c r="C19" s="108" t="s">
+      <c r="C19" s="107" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="109" t="s">
+      <c r="D19" s="107"/>
+      <c r="E19" s="108" t="s">
         <v>50</v>
       </c>
-      <c r="F19" s="109"/>
-      <c r="G19" s="109"/>
-      <c r="H19" s="109"/>
-      <c r="I19" s="109"/>
-      <c r="J19" s="109"/>
-    </row>
-    <row r="20" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B20" s="110" t="n">
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
+      <c r="I19" s="108"/>
+      <c r="J19" s="108"/>
+    </row>
+    <row r="20" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B20" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="112"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="112"/>
-      <c r="J20" s="112"/>
-    </row>
-    <row r="21" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B21" s="113" t="n">
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="111"/>
+      <c r="J20" s="111"/>
+    </row>
+    <row r="21" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B21" s="112" t="n">
         <v>2</v>
       </c>
-      <c r="C21" s="111"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="112"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="112"/>
-      <c r="J21" s="112"/>
-    </row>
-    <row r="22" s="78" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="B22" s="114" t="n">
+      <c r="C21" s="110"/>
+      <c r="D21" s="110"/>
+      <c r="E21" s="111"/>
+      <c r="F21" s="111"/>
+      <c r="G21" s="111"/>
+      <c r="H21" s="111"/>
+      <c r="I21" s="111"/>
+      <c r="J21" s="111"/>
+    </row>
+    <row r="22" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="B22" s="113" t="n">
         <v>3</v>
       </c>
-      <c r="C22" s="115"/>
-      <c r="D22" s="115"/>
-      <c r="E22" s="116"/>
-      <c r="F22" s="116"/>
-      <c r="G22" s="116"/>
-      <c r="H22" s="116"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="116"/>
+      <c r="C22" s="114"/>
+      <c r="D22" s="114"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
     </row>
     <row r="24" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B24" s="117" t="s">
+      <c r="B24" s="116" t="s">
         <v>52</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B25" s="117" t="s">
+      <c r="B25" s="116" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B26" s="117"/>
+      <c r="B26" s="116"/>
     </row>
     <row r="27" customFormat="false" ht="15.6" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="B27" s="117"/>
+      <c r="B27" s="116"/>
     </row>
   </sheetData>
   <mergeCells count="30">

--- a/Personal Document/ChangJiaQi/个人日报 常家奇.xlsx
+++ b/Personal Document/ChangJiaQi/个人日报 常家奇.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="4"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="268" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="62">
   <si>
     <t xml:space="preserve">密级：秘密</t>
   </si>
@@ -608,6 +608,38 @@
       <t xml:space="preserve">语言基础</t>
     </r>
   </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="0"/>
+        <charset val="134"/>
+      </rPr>
+      <t xml:space="preserve">C</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Droid Sans Fallback"/>
+        <family val="2"/>
+        <charset val="1"/>
+      </rPr>
+      <t xml:space="preserve">基础</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve">LinkedList</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Done</t>
+  </si>
+  <si>
+    <t xml:space="preserve">YES</t>
+  </si>
+  <si>
+    <t xml:space="preserve">内存和文件</t>
+  </si>
 </sst>
 </file>
 
@@ -617,7 +649,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="M/D/YYYY"/>
   </numFmts>
-  <fonts count="55">
+  <fonts count="56">
     <font>
       <sz val="12"/>
       <name val="宋体"/>
@@ -968,6 +1000,11 @@
       <family val="0"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="Droid Sans Fallback"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="5">
     <fill>
@@ -1215,7 +1252,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="119">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1688,6 +1725,10 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1719,9 +1760,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>578160</xdr:colOff>
+      <xdr:colOff>577440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>230760</xdr:rowOff>
+      <xdr:rowOff>230040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1731,7 +1772,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5280480" y="233640"/>
-          <a:ext cx="340200" cy="279000"/>
+          <a:ext cx="339480" cy="278280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1802,9 +1843,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>29520</xdr:colOff>
+      <xdr:colOff>28800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>235440</xdr:rowOff>
+      <xdr:rowOff>234720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1814,7 +1855,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5647320" y="296280"/>
-          <a:ext cx="299520" cy="221040"/>
+          <a:ext cx="298800" cy="220320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2858,9 +2899,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>336240</xdr:colOff>
+      <xdr:colOff>335520</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>235800</xdr:rowOff>
+      <xdr:rowOff>235080</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2870,7 +2911,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5970600" y="301680"/>
-          <a:ext cx="282960" cy="216000"/>
+          <a:ext cx="282240" cy="215280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3289,9 +3330,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>627120</xdr:colOff>
+      <xdr:colOff>626400</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>235440</xdr:rowOff>
+      <xdr:rowOff>234720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3301,7 +3342,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6279840" y="296280"/>
-          <a:ext cx="264600" cy="221040"/>
+          <a:ext cx="263880" cy="220320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4470,9 +4511,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>80640</xdr:colOff>
+      <xdr:colOff>79920</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>236880</xdr:rowOff>
+      <xdr:rowOff>236160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4482,7 +4523,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6563160" y="296280"/>
-          <a:ext cx="309960" cy="222480"/>
+          <a:ext cx="309240" cy="221760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5679,9 +5720,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>504000</xdr:colOff>
+      <xdr:colOff>503280</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>234720</xdr:rowOff>
+      <xdr:rowOff>234000</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5691,7 +5732,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6887160" y="219240"/>
-          <a:ext cx="409320" cy="297360"/>
+          <a:ext cx="408600" cy="296640"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6352,9 +6393,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523080</xdr:rowOff>
+      <xdr:rowOff>522360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6368,7 +6409,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2181240" cy="446760"/>
+          <a:ext cx="2180520" cy="446040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6394,9 +6435,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523080</xdr:rowOff>
+      <xdr:rowOff>522360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6410,7 +6451,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2181240" cy="446760"/>
+          <a:ext cx="2180520" cy="446040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6436,9 +6477,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523080</xdr:rowOff>
+      <xdr:rowOff>522360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6452,7 +6493,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2181240" cy="446760"/>
+          <a:ext cx="2180520" cy="446040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6478,9 +6519,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>359640</xdr:colOff>
+      <xdr:colOff>358920</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>277920</xdr:rowOff>
+      <xdr:rowOff>277200</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6490,7 +6531,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5940000" y="281520"/>
-          <a:ext cx="331200" cy="285840"/>
+          <a:ext cx="330480" cy="285120"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6561,9 +6602,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>677520</xdr:colOff>
+      <xdr:colOff>676800</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>283320</xdr:rowOff>
+      <xdr:rowOff>282600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6573,7 +6614,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6297120" y="345960"/>
-          <a:ext cx="291960" cy="226800"/>
+          <a:ext cx="291240" cy="226080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7617,9 +7658,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>976320</xdr:colOff>
+      <xdr:colOff>975600</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>283320</xdr:rowOff>
+      <xdr:rowOff>282600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7629,7 +7670,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6612120" y="351360"/>
-          <a:ext cx="275760" cy="221400"/>
+          <a:ext cx="275040" cy="220680"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8048,9 +8089,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1259640</xdr:colOff>
+      <xdr:colOff>1258920</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>283320</xdr:rowOff>
+      <xdr:rowOff>282600</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8060,7 +8101,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6913440" y="345960"/>
-          <a:ext cx="257760" cy="226800"/>
+          <a:ext cx="257040" cy="226080"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9229,9 +9270,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>72720</xdr:colOff>
+      <xdr:colOff>72000</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>284760</xdr:rowOff>
+      <xdr:rowOff>284040</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9241,7 +9282,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7189200" y="345960"/>
-          <a:ext cx="302040" cy="228240"/>
+          <a:ext cx="301320" cy="227520"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10438,9 +10479,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>484920</xdr:colOff>
+      <xdr:colOff>484200</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>281880</xdr:rowOff>
+      <xdr:rowOff>281160</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10450,7 +10491,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7504920" y="266760"/>
-          <a:ext cx="398520" cy="304560"/>
+          <a:ext cx="397800" cy="303840"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11111,9 +11152,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523080</xdr:rowOff>
+      <xdr:rowOff>522360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11127,7 +11168,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2181240" cy="446760"/>
+          <a:ext cx="2180520" cy="446040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11153,9 +11194,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523080</xdr:rowOff>
+      <xdr:rowOff>522360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11169,7 +11210,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2181240" cy="446760"/>
+          <a:ext cx="2180520" cy="446040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11195,9 +11236,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523080</xdr:rowOff>
+      <xdr:rowOff>522360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11211,7 +11252,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2181240" cy="446760"/>
+          <a:ext cx="2180520" cy="446040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11237,9 +11278,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523080</xdr:rowOff>
+      <xdr:rowOff>522360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11253,7 +11294,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2181240" cy="446760"/>
+          <a:ext cx="2180520" cy="446040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11279,9 +11320,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523080</xdr:rowOff>
+      <xdr:rowOff>522360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11295,7 +11336,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2181240" cy="446760"/>
+          <a:ext cx="2180520" cy="446040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11321,9 +11362,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523080</xdr:rowOff>
+      <xdr:rowOff>522360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11337,7 +11378,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2181240" cy="446760"/>
+          <a:ext cx="2180520" cy="446040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11363,9 +11404,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541800</xdr:colOff>
+      <xdr:colOff>541080</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>523080</xdr:rowOff>
+      <xdr:rowOff>522360</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11379,7 +11420,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2181240" cy="446760"/>
+          <a:ext cx="2180520" cy="446040"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14453,7 +14494,7 @@
   </sheetPr>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="J11" activeCellId="0" sqref="J11"/>
     </sheetView>
   </sheetViews>
@@ -14890,8 +14931,8 @@
   </sheetPr>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E33" activeCellId="0" sqref="E33"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -14937,19 +14978,27 @@
       <c r="B3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="72" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="73"/>
+      <c r="E3" s="73" t="n">
+        <v>720</v>
+      </c>
       <c r="F3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="74"/>
+      <c r="G3" s="74" t="s">
+        <v>54</v>
+      </c>
       <c r="H3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="76"/>
+      <c r="I3" s="76" t="n">
+        <v>5</v>
+      </c>
       <c r="J3" s="74"/>
     </row>
     <row r="4" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -14969,7 +15018,9 @@
       <c r="B5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="83"/>
+      <c r="C5" s="83" t="s">
+        <v>57</v>
+      </c>
       <c r="D5" s="83"/>
       <c r="E5" s="83"/>
       <c r="F5" s="83"/>
@@ -14982,7 +15033,9 @@
       <c r="B6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="85" t="n">
+        <v>720</v>
+      </c>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
       <c r="F6" s="85"/>
@@ -14995,7 +15048,9 @@
       <c r="B7" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="87" t="n">
+        <v>720</v>
+      </c>
       <c r="D7" s="87"/>
       <c r="E7" s="87"/>
       <c r="F7" s="87"/>
@@ -15042,27 +15097,43 @@
       <c r="B10" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="98"/>
+      <c r="C10" s="98" t="s">
+        <v>58</v>
+      </c>
       <c r="D10" s="98"/>
       <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="100"/>
+      <c r="F10" s="99" t="n">
+        <v>5</v>
+      </c>
+      <c r="G10" s="100" t="s">
+        <v>59</v>
+      </c>
       <c r="H10" s="100"/>
       <c r="I10" s="100"/>
-      <c r="J10" s="101"/>
+      <c r="J10" s="101" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="11" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B11" s="97" t="n">
         <v>2</v>
       </c>
-      <c r="C11" s="98"/>
-      <c r="D11" s="98"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="99"/>
-      <c r="G11" s="100"/>
+      <c r="C11" s="118" t="s">
+        <v>61</v>
+      </c>
+      <c r="D11" s="118"/>
+      <c r="E11" s="118"/>
+      <c r="F11" s="99" t="n">
+        <v>3</v>
+      </c>
+      <c r="G11" s="100" t="s">
+        <v>59</v>
+      </c>
       <c r="H11" s="100"/>
       <c r="I11" s="100"/>
-      <c r="J11" s="101"/>
+      <c r="J11" s="101" t="s">
+        <v>60</v>
+      </c>
     </row>
     <row r="12" s="96" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B12" s="102" t="n">
@@ -15138,7 +15209,7 @@
       <c r="E17" s="103"/>
       <c r="F17" s="104" t="n">
         <f aca="false">SUM(F10:F16)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G17" s="105"/>
       <c r="H17" s="105"/>
@@ -15179,9 +15250,13 @@
       <c r="B20" s="109" t="n">
         <v>1</v>
       </c>
-      <c r="C20" s="110"/>
+      <c r="C20" s="110" t="s">
+        <v>51</v>
+      </c>
       <c r="D20" s="110"/>
-      <c r="E20" s="111"/>
+      <c r="E20" s="111" t="s">
+        <v>51</v>
+      </c>
       <c r="F20" s="111"/>
       <c r="G20" s="111"/>
       <c r="H20" s="111"/>

--- a/Personal Document/ChangJiaQi/个人日报 常家奇.xlsx
+++ b/Personal Document/ChangJiaQi/个人日报 常家奇.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="5"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="文件封面" sheetId="1" state="visible" r:id="rId2"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="64">
   <si>
     <t xml:space="preserve">密级：秘密</t>
   </si>
@@ -640,6 +640,12 @@
   <si>
     <t xml:space="preserve">内存和文件</t>
   </si>
+  <si>
+    <t xml:space="preserve">项目需求分析</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7..21</t>
+  </si>
 </sst>
 </file>
 
@@ -1001,7 +1007,7 @@
       <charset val="1"/>
     </font>
     <font>
-      <sz val="9"/>
+      <sz val="10"/>
       <name val="Droid Sans Fallback"/>
       <family val="2"/>
     </font>
@@ -1252,7 +1258,7 @@
       <protection locked="true" hidden="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="119">
+  <cellXfs count="121">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -1725,6 +1731,14 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
     </xf>
+    <xf numFmtId="164" fontId="49" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="55" fillId="0" borderId="7" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="false" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="55" fillId="0" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="false" hidden="false"/>
@@ -1760,9 +1774,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>577440</xdr:colOff>
+      <xdr:colOff>577080</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>230040</xdr:rowOff>
+      <xdr:rowOff>229680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1772,7 +1786,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5280480" y="233640"/>
-          <a:ext cx="339480" cy="278280"/>
+          <a:ext cx="339120" cy="277920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -1843,9 +1857,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>28800</xdr:colOff>
+      <xdr:colOff>28440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>234720</xdr:rowOff>
+      <xdr:rowOff>234360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -1855,7 +1869,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5647320" y="296280"/>
-          <a:ext cx="298800" cy="220320"/>
+          <a:ext cx="298440" cy="219960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -2899,9 +2913,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>335520</xdr:colOff>
+      <xdr:colOff>335160</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>235080</xdr:rowOff>
+      <xdr:rowOff>234720</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -2911,7 +2925,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5970600" y="301680"/>
-          <a:ext cx="282240" cy="215280"/>
+          <a:ext cx="281880" cy="214920"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -3330,9 +3344,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>626400</xdr:colOff>
+      <xdr:colOff>626040</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>234720</xdr:rowOff>
+      <xdr:rowOff>234360</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -3342,7 +3356,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6279840" y="296280"/>
-          <a:ext cx="263880" cy="220320"/>
+          <a:ext cx="263520" cy="219960"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -4511,9 +4525,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>79920</xdr:colOff>
+      <xdr:colOff>79560</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>236160</xdr:rowOff>
+      <xdr:rowOff>235800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -4523,7 +4537,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6563160" y="296280"/>
-          <a:ext cx="309240" cy="221760"/>
+          <a:ext cx="308880" cy="221400"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -5720,9 +5734,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
-      <xdr:colOff>503280</xdr:colOff>
+      <xdr:colOff>502920</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>234000</xdr:rowOff>
+      <xdr:rowOff>233640</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -5732,7 +5746,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6887160" y="219240"/>
-          <a:ext cx="408600" cy="296640"/>
+          <a:ext cx="408240" cy="296280"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6393,9 +6407,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>522360</xdr:rowOff>
+      <xdr:rowOff>522000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6409,7 +6423,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2180520" cy="446040"/>
+          <a:ext cx="2180160" cy="445680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6435,9 +6449,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>522360</xdr:rowOff>
+      <xdr:rowOff>522000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6451,7 +6465,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2180520" cy="446040"/>
+          <a:ext cx="2180160" cy="445680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6477,9 +6491,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>522360</xdr:rowOff>
+      <xdr:rowOff>522000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -6493,7 +6507,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2180520" cy="446040"/>
+          <a:ext cx="2180160" cy="445680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -6519,9 +6533,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>358920</xdr:colOff>
+      <xdr:colOff>358560</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>277200</xdr:rowOff>
+      <xdr:rowOff>276840</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6531,7 +6545,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="5940000" y="281520"/>
-          <a:ext cx="330480" cy="285120"/>
+          <a:ext cx="330120" cy="284760"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -6602,9 +6616,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>676800</xdr:colOff>
+      <xdr:colOff>676440</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>282600</xdr:rowOff>
+      <xdr:rowOff>282240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -6614,7 +6628,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6297120" y="345960"/>
-          <a:ext cx="291240" cy="226080"/>
+          <a:ext cx="290880" cy="225720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -7658,9 +7672,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>975600</xdr:colOff>
+      <xdr:colOff>975240</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>282600</xdr:rowOff>
+      <xdr:rowOff>282240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -7670,7 +7684,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6612120" y="351360"/>
-          <a:ext cx="275040" cy="220680"/>
+          <a:ext cx="274680" cy="220320"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -8089,9 +8103,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
-      <xdr:colOff>1258920</xdr:colOff>
+      <xdr:colOff>1258560</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>282600</xdr:rowOff>
+      <xdr:rowOff>282240</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -8101,7 +8115,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6913440" y="345960"/>
-          <a:ext cx="257040" cy="226080"/>
+          <a:ext cx="256680" cy="225720"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -9270,9 +9284,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>72000</xdr:colOff>
+      <xdr:colOff>71640</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>284040</xdr:rowOff>
+      <xdr:rowOff>283680</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -9282,7 +9296,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7189200" y="345960"/>
-          <a:ext cx="301320" cy="227520"/>
+          <a:ext cx="300960" cy="227160"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -10479,9 +10493,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>484200</xdr:colOff>
+      <xdr:colOff>483840</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>281160</xdr:rowOff>
+      <xdr:rowOff>280800</xdr:rowOff>
     </xdr:to>
     <xdr:sp>
       <xdr:nvSpPr>
@@ -10491,7 +10505,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="7504920" y="266760"/>
-          <a:ext cx="397800" cy="303840"/>
+          <a:ext cx="397440" cy="303480"/>
         </a:xfrm>
         <a:custGeom>
           <a:avLst/>
@@ -11152,9 +11166,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>522360</xdr:rowOff>
+      <xdr:rowOff>522000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11168,7 +11182,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2180520" cy="446040"/>
+          <a:ext cx="2180160" cy="445680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11194,9 +11208,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>522360</xdr:rowOff>
+      <xdr:rowOff>522000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11210,7 +11224,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2180520" cy="446040"/>
+          <a:ext cx="2180160" cy="445680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11236,9 +11250,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>522360</xdr:rowOff>
+      <xdr:rowOff>522000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11252,7 +11266,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2180520" cy="446040"/>
+          <a:ext cx="2180160" cy="445680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11278,9 +11292,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>522360</xdr:rowOff>
+      <xdr:rowOff>522000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11294,7 +11308,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2180520" cy="446040"/>
+          <a:ext cx="2180160" cy="445680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11320,9 +11334,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>522360</xdr:rowOff>
+      <xdr:rowOff>522000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11336,7 +11350,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2180520" cy="446040"/>
+          <a:ext cx="2180160" cy="445680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11362,9 +11376,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>522360</xdr:rowOff>
+      <xdr:rowOff>522000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11378,7 +11392,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2180520" cy="446040"/>
+          <a:ext cx="2180160" cy="445680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -11404,9 +11418,9 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>541080</xdr:colOff>
+      <xdr:colOff>540720</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>522360</xdr:rowOff>
+      <xdr:rowOff>522000</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
@@ -11420,7 +11434,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="10317960" y="76320"/>
-          <a:ext cx="2180520" cy="446040"/>
+          <a:ext cx="2180160" cy="445680"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -14931,8 +14945,8 @@
   </sheetPr>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="K16" activeCellId="0" sqref="K16"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="G3" activeCellId="0" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15370,8 +15384,8 @@
   </sheetPr>
   <dimension ref="B1:J27"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A16" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="G41" activeCellId="0" sqref="G41"/>
+    <sheetView showFormulas="false" showGridLines="false" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K11" activeCellId="0" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -15417,19 +15431,27 @@
       <c r="B3" s="71" t="s">
         <v>27</v>
       </c>
-      <c r="C3" s="72"/>
+      <c r="C3" s="72" t="s">
+        <v>28</v>
+      </c>
       <c r="D3" s="73" t="s">
         <v>29</v>
       </c>
-      <c r="E3" s="73"/>
+      <c r="E3" s="73" t="n">
+        <v>7.21</v>
+      </c>
       <c r="F3" s="73" t="s">
         <v>30</v>
       </c>
-      <c r="G3" s="74"/>
+      <c r="G3" s="74" t="s">
+        <v>54</v>
+      </c>
       <c r="H3" s="75" t="s">
         <v>32</v>
       </c>
-      <c r="I3" s="76"/>
+      <c r="I3" s="76" t="n">
+        <v>5</v>
+      </c>
       <c r="J3" s="74"/>
     </row>
     <row r="4" s="77" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -15449,20 +15471,24 @@
       <c r="B5" s="82" t="s">
         <v>34</v>
       </c>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="83"/>
+      <c r="C5" s="119" t="s">
+        <v>62</v>
+      </c>
+      <c r="D5" s="119"/>
+      <c r="E5" s="119"/>
+      <c r="F5" s="119"/>
+      <c r="G5" s="119"/>
+      <c r="H5" s="119"/>
+      <c r="I5" s="119"/>
+      <c r="J5" s="119"/>
     </row>
     <row r="6" s="81" customFormat="true" ht="20.1" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
       <c r="B6" s="84" t="s">
         <v>36</v>
       </c>
-      <c r="C6" s="85"/>
+      <c r="C6" s="85" t="n">
+        <v>7.21</v>
+      </c>
       <c r="D6" s="85"/>
       <c r="E6" s="85"/>
       <c r="F6" s="85"/>
@@ -15475,7 +15501,9 @@
       <c r="B7" s="86" t="s">
         <v>37</v>
       </c>
-      <c r="C7" s="87"/>
+      <c r="C7" s="87" t="s">
+        <v>63</v>
+      </c>
       <c r="D7" s="87"/>
       <c r="E7" s="87"/>
       <c r="F7" s="87"/>
@@ -15522,11 +15550,17 @@
       <c r="B10" s="97" t="n">
         <v>1</v>
       </c>
-      <c r="C10" s="98"/>
-      <c r="D10" s="98"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="99"/>
-      <c r="G10" s="100"/>
+      <c r="C10" s="120" t="s">
+        <v>62</v>
+      </c>
+      <c r="D10" s="120"/>
+      <c r="E10" s="120"/>
+      <c r="F10" s="99" t="n">
+        <v>8</v>
+      </c>
+      <c r="G10" s="100" t="s">
+        <v>45</v>
+      </c>
       <c r="H10" s="100"/>
       <c r="I10" s="100"/>
       <c r="J10" s="101"/>
@@ -15618,7 +15652,7 @@
       <c r="E17" s="103"/>
       <c r="F17" s="104" t="n">
         <f aca="false">SUM(F10:F16)</f>
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="G17" s="105"/>
       <c r="H17" s="105"/>
